--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ackr2.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.9342969416920001</v>
+        <v>0.1865019783651111</v>
       </c>
       <c r="R2">
-        <v>8.408672475228</v>
+        <v>1.678517805286</v>
       </c>
       <c r="S2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="T2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>11.528539</v>
       </c>
       <c r="I3">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J3">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -635,10 +635,10 @@
         <v>18.914481966974</v>
       </c>
       <c r="S3">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="T3">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H4">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I4">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J4">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.2500387744735555</v>
+        <v>0.1144322606868889</v>
       </c>
       <c r="R4">
-        <v>2.250348970261999</v>
+        <v>1.029890346182</v>
       </c>
       <c r="S4">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="T4">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H5">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I5">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J5">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>6.687724312738666</v>
+        <v>7.676871270957778</v>
       </c>
       <c r="R5">
-        <v>60.18951881464799</v>
+        <v>69.09184143862001</v>
       </c>
       <c r="S5">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="T5">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
     </row>
   </sheetData>
